--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2440.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2440.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.034145394994447</v>
+        <v>2.157994747161865</v>
       </c>
       <c r="B1">
-        <v>2.167331521821804</v>
+        <v>2.417201042175293</v>
       </c>
       <c r="C1">
-        <v>8.191026020792206</v>
+        <v>2.527528285980225</v>
       </c>
       <c r="D1">
-        <v>2.511777900692588</v>
+        <v>3.228439807891846</v>
       </c>
       <c r="E1">
-        <v>0.981019265476296</v>
+        <v>2.321007251739502</v>
       </c>
     </row>
   </sheetData>
